--- a/AlgorithmeToutousDifficulte.xlsx
+++ b/AlgorithmeToutousDifficulte.xlsx
@@ -383,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,11 +601,11 @@
         <v>69</v>
       </c>
       <c r="B3" s="4">
-        <f>FLOOR(B2/$A$3,1)-FLOOR(B1/27,1)*16</f>
+        <f>FLOOR(B2/$A$3,1)-AC13</f>
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:AB3" si="2">FLOOR(C2/$A$3,1)-FLOOR(C1/27,1)*16</f>
+        <f t="shared" ref="C3:AB3" si="2">FLOOR(C2/$A$3,1)-FLOOR(C1/16,1)*2</f>
         <v>0</v>
       </c>
       <c r="D3" s="4">
@@ -662,51 +662,51 @@
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R3" s="4">
+      <c r="T3" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U3" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="S3" s="4">
+      <c r="V3" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T3" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="U3" s="4">
+      <c r="W3" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="V3" s="4">
+      <c r="X3" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="W3" s="4">
+      <c r="Y3" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Z3" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="AA3" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AB3" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
-      </c>
-      <c r="AA3" s="4">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="AB3" s="4">
-        <f t="shared" si="2"/>
-        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
@@ -775,51 +775,51 @@
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S4" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="X4" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AA4" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
@@ -892,15 +892,15 @@
       </c>
       <c r="R5" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="4"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="4"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
@@ -1001,51 +1001,51 @@
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="R6" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
       <c r="S6" s="1">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="1">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
@@ -1114,51 +1114,51 @@
       </c>
       <c r="Q7">
         <f t="shared" si="6"/>
-        <v>4375</v>
+        <v>4775</v>
       </c>
       <c r="R7">
         <f t="shared" si="6"/>
-        <v>5050</v>
+        <v>5275</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>5725</v>
       </c>
       <c r="T7">
         <f t="shared" si="6"/>
-        <v>5875</v>
+        <v>6100</v>
       </c>
       <c r="U7">
         <f t="shared" si="6"/>
-        <v>6150</v>
+        <v>6650</v>
       </c>
       <c r="V7">
         <f t="shared" si="6"/>
-        <v>6825</v>
+        <v>7400</v>
       </c>
       <c r="W7">
         <f t="shared" si="6"/>
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="X7">
         <f t="shared" si="6"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="Y7">
         <f t="shared" si="6"/>
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="Z7">
         <f t="shared" si="6"/>
-        <v>10850</v>
+        <v>11250</v>
       </c>
       <c r="AA7">
         <f t="shared" si="6"/>
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="AB7">
         <f t="shared" si="6"/>
-        <v>16250</v>
+        <v>12625</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
@@ -1280,6 +1280,18 @@
       </c>
       <c r="B10">
         <v>25</v>
+      </c>
+      <c r="C10">
+        <f>B10*3</f>
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E10" si="8">C10*3</f>
+        <v>225</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="8"/>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
@@ -1288,107 +1300,107 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:AB11" si="8">FLOOR((C1*C1+1)/2,1)+C1*C1</f>
+        <f t="shared" ref="C11:AB11" si="9">FLOOR((C1*C1+1)/2,1)+C1*C1</f>
         <v>6</v>
       </c>
       <c r="D11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="E11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="F11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="G11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="H11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="I11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="J11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
       <c r="K11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="L11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>182</v>
       </c>
       <c r="M11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="N11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>254</v>
       </c>
       <c r="O11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="P11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>338</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>384</v>
       </c>
       <c r="R11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>434</v>
       </c>
       <c r="S11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>486</v>
       </c>
       <c r="T11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>542</v>
       </c>
       <c r="U11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="V11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>662</v>
       </c>
       <c r="W11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>726</v>
       </c>
       <c r="X11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>794</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>864</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>938</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1014</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1094</v>
       </c>
     </row>
@@ -1401,108 +1413,108 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:AB13" si="9">CEILING(C7/110,1)</f>
+        <f t="shared" ref="C13:AB13" si="10">CEILING(C7/110,1)</f>
         <v>2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="E13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="F13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="G13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="H13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="I13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="J13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="K13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="L13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="M13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="N13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="P13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="9"/>
-        <v>40</v>
+        <f t="shared" si="10"/>
+        <v>44</v>
       </c>
       <c r="R13">
-        <f t="shared" si="9"/>
-        <v>46</v>
+        <f t="shared" si="10"/>
+        <v>48</v>
       </c>
       <c r="S13">
-        <f t="shared" si="9"/>
-        <v>50</v>
+        <f t="shared" si="10"/>
+        <v>53</v>
       </c>
       <c r="T13">
-        <f t="shared" si="9"/>
-        <v>54</v>
+        <f t="shared" si="10"/>
+        <v>56</v>
       </c>
       <c r="U13">
-        <f t="shared" si="9"/>
-        <v>56</v>
+        <f t="shared" si="10"/>
+        <v>61</v>
       </c>
       <c r="V13">
-        <f t="shared" si="9"/>
-        <v>63</v>
+        <f t="shared" si="10"/>
+        <v>68</v>
       </c>
       <c r="W13">
-        <f t="shared" si="9"/>
-        <v>71</v>
+        <f t="shared" si="10"/>
+        <v>75</v>
       </c>
       <c r="X13">
-        <f t="shared" si="9"/>
-        <v>78</v>
+        <f t="shared" si="10"/>
+        <v>81</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="9"/>
-        <v>96</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="9"/>
-        <v>99</v>
+        <f t="shared" si="10"/>
+        <v>103</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="9"/>
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>104</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="9"/>
-        <v>148</v>
+        <f t="shared" si="10"/>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
